--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -694,6 +694,10 @@
     <t>http://ltc-ig.fhir.tw/ValueSet/RelationshipTypeVS-TWLTC</t>
   </si>
   <si>
+    <t xml:space="preserve">tw-core-4
+</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -1144,7 +1148,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -4151,27 +4155,27 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4194,17 +4198,17 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4253,7 +4257,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4262,27 +4266,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4388,10 +4392,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4499,10 +4503,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4528,16 +4532,16 @@
         <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4565,10 +4569,10 @@
         <v>214</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4586,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4601,21 +4605,21 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4641,16 +4645,16 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4699,7 +4703,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4714,25 +4718,25 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4754,13 +4758,13 @@
         <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4810,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4825,25 +4829,25 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4865,13 +4869,13 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4921,7 +4925,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4936,21 +4940,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4976,10 +4980,10 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5030,7 +5034,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5045,21 +5049,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5085,10 +5089,10 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5139,7 +5143,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5154,21 +5158,21 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5191,17 +5195,17 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5250,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5265,21 +5269,21 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5302,19 +5306,19 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5363,7 +5367,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5378,21 +5382,21 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5498,10 +5502,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5609,10 +5613,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5638,10 +5642,10 @@
         <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5671,10 +5675,10 @@
         <v>214</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5692,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5701,27 +5705,27 @@
         <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5747,16 +5751,16 @@
         <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5805,7 +5809,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5820,21 +5824,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5860,16 +5864,16 @@
         <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5897,10 +5901,10 @@
         <v>214</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5918,7 +5922,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5933,21 +5937,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5970,16 +5974,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6029,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6055,10 +6059,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,13 +6085,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6138,7 +6142,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6153,7 +6157,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -6164,10 +6168,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6193,14 +6197,14 @@
         <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6228,10 +6232,10 @@
         <v>214</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6249,7 +6253,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6264,21 +6268,21 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6301,13 +6305,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6358,7 +6362,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6373,7 +6377,7 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -6384,10 +6388,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6410,17 +6414,17 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6469,7 +6473,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6484,21 +6488,21 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6604,10 +6608,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6715,10 +6719,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6744,16 +6748,16 @@
         <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6766,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>20</v>
@@ -6781,10 +6785,10 @@
         <v>214</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6802,7 +6806,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6817,21 +6821,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6857,13 +6861,13 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6877,7 +6881,7 @@
         <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>20</v>
@@ -6892,10 +6896,10 @@
         <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6913,7 +6917,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6928,21 +6932,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6968,16 +6972,16 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6990,7 +6994,7 @@
         <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>20</v>
@@ -7026,7 +7030,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7041,21 +7045,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7081,10 +7085,10 @@
         <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7099,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>20</v>
@@ -7135,7 +7139,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7150,25 +7154,25 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7190,10 +7194,10 @@
         <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7208,7 +7212,7 @@
         <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>20</v>
@@ -7244,7 +7248,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7259,25 +7263,25 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7299,13 +7303,13 @@
         <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7319,7 +7323,7 @@
         <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>20</v>
@@ -7355,7 +7359,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7370,25 +7374,25 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7410,10 +7414,10 @@
         <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7464,7 +7468,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7479,25 +7483,25 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7519,10 +7523,10 @@
         <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7537,7 +7541,7 @@
         <v>20</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>20</v>
@@ -7573,7 +7577,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7588,21 +7592,21 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7628,13 +7632,13 @@
         <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7684,7 +7688,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7699,21 +7703,21 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7736,17 +7740,17 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7759,7 +7763,7 @@
         <v>20</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>20</v>
@@ -7795,7 +7799,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7810,21 +7814,21 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7847,17 +7851,17 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -7906,7 +7910,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7921,21 +7925,21 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7958,13 +7962,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8015,7 +8019,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8030,10 +8034,10 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8041,10 +8045,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8067,19 +8071,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8128,7 +8132,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8143,7 +8147,7 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -8154,10 +8158,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8263,10 +8267,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8374,14 +8378,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8403,10 +8407,10 @@
         <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>146</v>
@@ -8461,7 +8465,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8487,10 +8491,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8516,16 +8520,16 @@
         <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8574,7 +8578,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>84</v>
@@ -8589,7 +8593,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>20</v>
@@ -8600,10 +8604,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8629,16 +8633,16 @@
         <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -8687,7 +8691,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8702,7 +8706,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC RelatedPerson</t>
+    <t>長期照顧－關係人</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>住民的關係人，包含家屬、照顧者、法定代理人等與住民有關的人員資料。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 RelatedPerson Resource，以呈現住民的關係人，包含家屬、照顧者、法定代理人等與住民有關的人員資料。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1797,17 +1797,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.74609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1816,25 +1816,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.7578125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.88671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="89.0078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="77.578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="92.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1797,17 +1797,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1816,25 +1816,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.7578125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.88671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.80078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.97265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.90234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="77.578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="76.30859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="92.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -630,7 +630,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCRelatedPerson.xlsx
+++ b/docs/StructureDefinition-LTCRelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
